--- a/doc/帮助手册对应表.xlsx
+++ b/doc/帮助手册对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11160" windowHeight="10020" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="11190" windowHeight="10020" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户手册名称对应表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
   <si>
     <t>编号</t>
   </si>
@@ -231,6 +231,12 @@
     <t>youker-assistant</t>
   </si>
   <si>
+    <t>生物识别管理工具</t>
+  </si>
+  <si>
+    <t>biometric-manager</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -267,7 +273,7 @@
     <t>解压</t>
   </si>
   <si>
-    <t>../date &gt; ../engrampa(0309)</t>
+    <t>../date &gt; ../engrampa</t>
   </si>
   <si>
     <t xml:space="preserve">../kylin-control-center </t>
@@ -301,6 +307,9 @@
   </si>
   <si>
     <t>生物识别</t>
+  </si>
+  <si>
+    <t>../date &gt; ../biometric-manager</t>
   </si>
   <si>
     <t>图像查看</t>
@@ -372,6 +381,24 @@
     <t xml:space="preserve">../brasero </t>
   </si>
   <si>
+    <t>open-menu-symbolic</t>
+  </si>
+  <si>
+    <t>window-close-symbolic</t>
+  </si>
+  <si>
+    <t>window-maximize-symbolic</t>
+  </si>
+  <si>
+    <t>window-minimize-symbolic</t>
+  </si>
+  <si>
+    <t>window-restore-symbolic</t>
+  </si>
+  <si>
+    <t>icon返回顶部</t>
+  </si>
+  <si>
     <t>文件夹</t>
   </si>
   <si>
@@ -403,8 +430,8 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0000"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -451,13 +478,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -474,11 +494,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,14 +512,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,6 +533,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -529,15 +548,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,17 +572,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -575,7 +602,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,13 +629,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +701,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,145 +803,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,6 +859,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -842,21 +884,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -907,142 +934,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1936,6 +1963,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>4445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>720090</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>13970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22" descr="生物识别"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8646795" y="15231745"/>
+          <a:ext cx="712470" cy="720725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2227,10 +2292,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:I33"/>
+  <dimension ref="B1:I35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
@@ -3018,6 +3083,31 @@
       </c>
       <c r="I33" s="3"/>
     </row>
+    <row r="34" ht="56" customHeight="1" spans="2:9">
+      <c r="B34" s="3">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="3">
+        <v>18</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" ht="12.75"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3029,19 +3119,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD33"/>
+  <dimension ref="A1:XFD39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="5.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="36" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -19433,19 +19523,19 @@
     </row>
     <row r="2" s="5" customFormat="1" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="2:6">
@@ -19453,11 +19543,11 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -19466,11 +19556,11 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -19485,7 +19575,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -19494,13 +19584,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -19509,11 +19599,11 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -19522,15 +19612,17 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="F8" s="6">
+        <v>309</v>
+      </c>
     </row>
     <row r="9" s="5" customFormat="1" spans="2:6">
       <c r="B9" s="3">
@@ -19543,7 +19635,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -19558,7 +19650,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -19573,7 +19665,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -19588,7 +19680,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -19603,7 +19695,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -19618,7 +19710,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -19633,7 +19725,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -19642,11 +19734,11 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -19655,13 +19747,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -19670,26 +19762,30 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="F18" s="6">
+        <v>311</v>
+      </c>
     </row>
     <row r="19" s="5" customFormat="1" spans="2:6">
       <c r="B19" s="3">
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -19698,11 +19794,11 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -19711,13 +19807,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -19726,13 +19822,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -19747,7 +19843,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -19756,11 +19852,11 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F24" s="3"/>
     </row>
@@ -19769,13 +19865,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F25" s="3"/>
     </row>
@@ -19784,11 +19880,11 @@
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -19803,7 +19899,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F27" s="3"/>
     </row>
@@ -19812,13 +19908,13 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F28" s="3"/>
     </row>
@@ -19833,7 +19929,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F29" s="3"/>
     </row>
@@ -19842,13 +19938,13 @@
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F30" s="3"/>
     </row>
@@ -19863,7 +19959,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F31" s="3"/>
     </row>
@@ -19872,13 +19968,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F32" s="6">
         <v>309</v>
@@ -19889,16 +19985,118 @@
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F33" s="6">
         <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="3">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="3">
+        <v>33</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="3">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="3">
+        <v>35</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="3">
+        <v>36</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="3">
+        <v>37</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="6">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -19911,10 +20109,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:I33"/>
+  <dimension ref="B2:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -19929,28 +20127,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -20226,7 +20424,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -20267,7 +20465,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
@@ -20614,6 +20812,26 @@
         <v>0</v>
       </c>
       <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="3">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="3">
+        <v>18</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
